--- a/biology/Médecine/Sadok_Mtimet/Sadok_Mtimet.xlsx
+++ b/biology/Médecine/Sadok_Mtimet/Sadok_Mtimet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sadok Mtimet, né le 23 janvier 1939 à Zarzis et décédé le 21 septembre 2009 à Tunis, est un médecin tunisien. Il est considéré, avec le docteur Hassen Gharbi, comme le père de la biophysique et de la médecine nucléaire en Tunisie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sadok Mtimet, né le 23 janvier 1939 à Zarzis et décédé le 21 septembre 2009 à Tunis, est un médecin tunisien. Il est considéré, avec le docteur Hassen Gharbi, comme le père de la biophysique et de la médecine nucléaire en Tunisie.
 </t>
         </is>
       </c>
@@ -511,16 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mtimet est le cadet d'une famille de cinq enfants. Son père Ahmed, formé à la Zitouna, occupe les fonctions de notaire qui le conduisent à séjourner avec sa famille dans la ville du Kef. En dehors de cette période, la famille vit à El Mouensa, un bourg de la ville de Zarzis, dans le sud du pays.
 En 1965, il épouse Brigitte Boucard, ressortissante haïtienne et future médecin. Ils ont trois enfants.
-Formation
-Il suit les cours de l'école primaire d'El Mouensa. Bénéficiaire d'une bourse d'études, il est envoyé à Tunis pour continuer ses études secondaires. Il passe quelques mois au Collège Sadiki puis rejoint le lycée Khaznadar nouvellement construit. Il y obtient son baccalauréat en section sciences expérimentales en 1958.
-Il part alors pour Montpellier en France, où il s'inscrit à la faculté de médecine où il s'inscrit en physique-chimie-biologie en septembre 1959. En juin 1965, la fin de ses études est sanctionnée par une thèse de médecine. Il devient alors moniteur en biophysique chez le professeur Sucquet.
-Carrière
-Il est interne à l'hôpital Charles-Nicolle de Tunis de 1964 à 1965, dans le service du professeur Hassouna Ben Ayed. De 1967 à 1970, il est assistant à l'Institut Gustave-Roussy de Paris, dans le service du professeur Maurice Tubiana ; il passe le concours d'assistanat à Tunis, en avril 1968, avant de revenir définitivement en Tunisie en juillet 1970.
-Entré à l'Institut Salah-Azaïz en tant qu'assistant, il accède à la fonction de chef du service Isotopes, puis est nommé directeur du Centre national de radioprotection à sa création[2],[3]. Ayant suivi la filière hospitalo-universitaire, il est parallèlement professeur à la faculté de médecine de Tunis et y occupe le poste de chef du département de biophysique[3].
 </t>
         </is>
       </c>
@@ -546,13 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(en) Michèle V. El May, Neila Chahed et Sadok Mtimet, « Radon concentrations in some dwellings of Tunisia », Health Physics, vol. 86, no 2,‎ février 2004, p. 150-154 (ISSN 0017-9078).
-(en) Michèle V. El May, Josette Jeusset, Ahmed El May, Sadok Mtimet et Philippe Fragu, « Evidence of iodine storage within thyroid stroma after iodine treatment : imaging by secondary ion mass spectometry (SIMS) microscopy in goitrous tissue », Journal of Clinical Endocrinology and Metabolism, vol. 81, no 6,‎ juin 1996, p. 2370-2375 (ISSN 0021-972X).</t>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il suit les cours de l'école primaire d'El Mouensa. Bénéficiaire d'une bourse d'études, il est envoyé à Tunis pour continuer ses études secondaires. Il passe quelques mois au Collège Sadiki puis rejoint le lycée Khaznadar nouvellement construit. Il y obtient son baccalauréat en section sciences expérimentales en 1958.
+Il part alors pour Montpellier en France, où il s'inscrit à la faculté de médecine où il s'inscrit en physique-chimie-biologie en septembre 1959. En juin 1965, la fin de ses études est sanctionnée par une thèse de médecine. Il devient alors moniteur en biophysique chez le professeur Sucquet.
+</t>
         </is>
       </c>
     </row>
@@ -577,13 +592,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est interne à l'hôpital Charles-Nicolle de Tunis de 1964 à 1965, dans le service du professeur Hassouna Ben Ayed. De 1967 à 1970, il est assistant à l'Institut Gustave-Roussy de Paris, dans le service du professeur Maurice Tubiana ; il passe le concours d'assistanat à Tunis, en avril 1968, avant de revenir définitivement en Tunisie en juillet 1970.
+Entré à l'Institut Salah-Azaïz en tant qu'assistant, il accède à la fonction de chef du service Isotopes, puis est nommé directeur du Centre national de radioprotection à sa création,. Ayant suivi la filière hospitalo-universitaire, il est parallèlement professeur à la faculté de médecine de Tunis et y occupe le poste de chef du département de biophysique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sadok_Mtimet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sadok_Mtimet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Michèle V. El May, Neila Chahed et Sadok Mtimet, « Radon concentrations in some dwellings of Tunisia », Health Physics, vol. 86, no 2,‎ février 2004, p. 150-154 (ISSN 0017-9078).
+(en) Michèle V. El May, Josette Jeusset, Ahmed El May, Sadok Mtimet et Philippe Fragu, « Evidence of iodine storage within thyroid stroma after iodine treatment : imaging by secondary ion mass spectometry (SIMS) microscopy in goitrous tissue », Journal of Clinical Endocrinology and Metabolism, vol. 81, no 6,‎ juin 1996, p. 2370-2375 (ISSN 0021-972X).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sadok_Mtimet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sadok_Mtimet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Honneurs divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Colloque consacré au Pr Sadok Mtimet[4] ;
-Création du Prix Sadok-Mtimet[5].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Colloque consacré au Pr Sadok Mtimet ;
+Création du Prix Sadok-Mtimet.</t>
         </is>
       </c>
     </row>
